--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_du_Val-de-Saône-Pierre-Vitter/Centre_hospitalier_du_Val-de-Saône-Pierre-Vitter.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_du_Val-de-Saône-Pierre-Vitter/Centre_hospitalier_du_Val-de-Saône-Pierre-Vitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_du_Val-de-Sa%C3%B4ne-Pierre-Vitter</t>
+          <t>Centre_hospitalier_du_Val-de-Saône-Pierre-Vitter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier du Val-de-Saône-Pierre-Vitter (CHVS), plus couramment appelé hôpital de Gray est un centre hospitalier français situé à Gray en région Bourgogne-Franche-Comté. Il porte le nom de Pierre Vitter, ancien maire de Gray, député et sénateur de la Haute-Saône.
-Depuis le 1er juillet 2016, il fait partie du groupement hospitalier de territoire (GHT) Centre Franche-Comté aux côtés de 10 autres établissements francs-comtois dont le centre hospitalier régional universitaire de Besançon[1].
-Il quitte finalement ce groupement et intègre le 1er janvier 2020 le groupe hospitalier de la Haute-Saône[2].
+Depuis le 1er juillet 2016, il fait partie du groupement hospitalier de territoire (GHT) Centre Franche-Comté aux côtés de 10 autres établissements francs-comtois dont le centre hospitalier régional universitaire de Besançon.
+Il quitte finalement ce groupement et intègre le 1er janvier 2020 le groupe hospitalier de la Haute-Saône.
 </t>
         </is>
       </c>
